--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_208__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_208__Reeval_Sobol_Modell_1.1.xlsx
@@ -6118,19 +6118,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>-0.902032732963562</c:v>
+                  <c:v>-0.9020373225212097</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>46.7105712890625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.171331882476807</c:v>
+                  <c:v>-1.171329617500305</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.1629822701215744</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.07035827636719</c:v>
+                  <c:v>25.07036018371582</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-3.213447332382202</c:v>
@@ -6142,22 +6142,22 @@
                   <c:v>53.52482604980469</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.94583129882812</c:v>
+                  <c:v>49.94583511352539</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>24.60654830932617</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.271770000457764</c:v>
+                  <c:v>1.271767735481262</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.776417851448059</c:v>
+                  <c:v>1.776420116424561</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.11630779504776</c:v>
+                  <c:v>-0.1163123548030853</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49.03784561157227</c:v>
+                  <c:v>49.03784942626953</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>47.78487777709961</c:v>
@@ -6169,7 +6169,7 @@
                   <c:v>53.06016159057617</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35.40014266967773</c:v>
+                  <c:v>35.40013885498047</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>46.79468536376953</c:v>
@@ -6178,13 +6178,13 @@
                   <c:v>52.68182754516602</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42.95393371582031</c:v>
+                  <c:v>42.95392990112305</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50.88688278198242</c:v>
+                  <c:v>50.88687896728516</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.9500498175621033</c:v>
+                  <c:v>-0.9500475525856018</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>49.73401641845703</c:v>
@@ -6196,7 +6196,7 @@
                   <c:v>0.00770917534828186</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>53.20254135131836</c:v>
+                  <c:v>53.20254516601562</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-0.334097683429718</c:v>
@@ -6205,7 +6205,7 @@
                   <c:v>51.49558639526367</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.872361898422241</c:v>
+                  <c:v>1.872358560562134</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>52.3834114074707</c:v>
@@ -6220,19 +6220,19 @@
                   <c:v>-0.1921800225973129</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.776417851448059</c:v>
+                  <c:v>1.776420116424561</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1.886475324630737</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.591153740882874</c:v>
+                  <c:v>-1.591151356697083</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.590221405029297</c:v>
+                  <c:v>-1.5902259349823</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>51.55786895751953</c:v>
+                  <c:v>51.55786514282227</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>50.64347839355469</c:v>
@@ -6241,7 +6241,7 @@
                   <c:v>31.28743362426758</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1596793085336685</c:v>
+                  <c:v>0.1596770286560059</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>44.09068298339844</c:v>
@@ -6250,7 +6250,7 @@
                   <c:v>52.31232070922852</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>61.05391311645508</c:v>
+                  <c:v>61.05390930175781</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-2.364644765853882</c:v>
@@ -6277,7 +6277,7 @@
                   <c:v>-1.895269513130188</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-1.860783338546753</c:v>
+                  <c:v>-1.860781073570251</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45.46251678466797</c:v>
@@ -6298,7 +6298,7 @@
                   <c:v>44.88300323486328</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42.73818969726562</c:v>
+                  <c:v>42.73819732666016</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>4.940296649932861</c:v>
@@ -6307,67 +6307,67 @@
                   <c:v>0.02466844953596592</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43.56764984130859</c:v>
+                  <c:v>43.56765365600586</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>48.11346817016602</c:v>
+                  <c:v>48.11346435546875</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.9537129402160645</c:v>
+                  <c:v>-0.953710675239563</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>-2.480733633041382</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.6068821549415588</c:v>
+                  <c:v>0.6068844199180603</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>46.18349456787109</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.5142831206321716</c:v>
+                  <c:v>0.5142808556556702</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.568920612335205</c:v>
+                  <c:v>6.568918228149414</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.40899658203125</c:v>
+                  <c:v>0.4089943170547485</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>47.75874710083008</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>49.02904510498047</c:v>
+                  <c:v>49.0290412902832</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.776417851448059</c:v>
+                  <c:v>1.776420116424561</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-1.734692096710205</c:v>
+                  <c:v>-1.734694361686707</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>35.54691696166992</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.80157870054245</c:v>
+                  <c:v>-0.8015741109848022</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45.79841613769531</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>52.19892883300781</c:v>
+                  <c:v>52.19893264770508</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>44.75126647949219</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.931238174438477</c:v>
+                  <c:v>3.931241750717163</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0.7857226729393005</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.2910133898258209</c:v>
+                  <c:v>0.2910110950469971</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>49.01873016357422</c:v>
@@ -6379,16 +6379,16 @@
                   <c:v>49.56009292602539</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.5169820189476013</c:v>
+                  <c:v>-0.5169842839241028</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>40.09206390380859</c:v>
+                  <c:v>40.09206008911133</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.5340461730957031</c:v>
+                  <c:v>0.5340507030487061</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.776417851448059</c:v>
+                  <c:v>1.776420116424561</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>53.80799865722656</c:v>
@@ -6406,22 +6406,22 @@
                   <c:v>55.59918975830078</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.776417851448059</c:v>
+                  <c:v>1.776420116424561</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>49.73968505859375</c:v>
+                  <c:v>49.73968124389648</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>34.95949172973633</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>27.37660789489746</c:v>
+                  <c:v>27.37660598754883</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>55.39253616333008</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>54.07049560546875</c:v>
+                  <c:v>54.07049942016602</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>0.7896661758422852</c:v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.902032732963562</v>
+        <v>-0.9020373225212097</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-1.171331882476807</v>
+        <v>-1.171329617500305</v>
       </c>
       <c r="G4">
         <v>77</v>
@@ -7247,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.07035827636719</v>
+        <v>25.07036018371582</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7351,7 +7351,7 @@
         <v>49.6799</v>
       </c>
       <c r="F10">
-        <v>49.94583129882812</v>
+        <v>49.94583511352539</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.271770000457764</v>
+        <v>1.271767735481262</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.776417851448059</v>
+        <v>1.776420116424561</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.11630779504776</v>
+        <v>-0.1163123548030853</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>45.6578</v>
       </c>
       <c r="F15">
-        <v>49.03784561157227</v>
+        <v>49.03784942626953</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>35.40014266967773</v>
+        <v>35.40013885498047</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>34.2646</v>
       </c>
       <c r="F22">
-        <v>42.95393371582031</v>
+        <v>42.95392990112305</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>50.398</v>
       </c>
       <c r="F23">
-        <v>50.88688278198242</v>
+        <v>50.88687896728516</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>-0.9500498175621033</v>
+        <v>-0.9500475525856018</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>53.20254135131836</v>
+        <v>53.20254516601562</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>51.9912</v>
       </c>
       <c r="F31">
-        <v>1.872361898422241</v>
+        <v>1.872358560562134</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.776417851448059</v>
+        <v>1.776420116424561</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-1.591153740882874</v>
+        <v>-1.591151356697083</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>-1.590221405029297</v>
+        <v>-1.5902259349823</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>50.7435</v>
       </c>
       <c r="F40">
-        <v>51.55786895751953</v>
+        <v>51.55786514282227</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.1596793085336685</v>
+        <v>0.1596770286560059</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>49.825</v>
       </c>
       <c r="F46">
-        <v>61.05391311645508</v>
+        <v>61.05390930175781</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>39.3649</v>
       </c>
       <c r="F55">
-        <v>-1.860783338546753</v>
+        <v>-1.860781073570251</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>42.73818969726562</v>
+        <v>42.73819732666016</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>51.173</v>
       </c>
       <c r="F65">
-        <v>43.56764984130859</v>
+        <v>43.56765365600586</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>45.7573</v>
       </c>
       <c r="F66">
-        <v>48.11346817016602</v>
+        <v>48.11346435546875</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.9537129402160645</v>
+        <v>-0.953710675239563</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.6068821549415588</v>
+        <v>0.6068844199180603</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0.5142831206321716</v>
+        <v>0.5142808556556702</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>6.568920612335205</v>
+        <v>6.568918228149414</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.40899658203125</v>
+        <v>0.4089943170547485</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>49.02904510498047</v>
+        <v>49.0290412902832</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.776417851448059</v>
+        <v>1.776420116424561</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>-1.734692096710205</v>
+        <v>-1.734694361686707</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-0.80157870054245</v>
+        <v>-0.8015741109848022</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>52.19892883300781</v>
+        <v>52.19893264770508</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>3.931238174438477</v>
+        <v>3.931241750717163</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.2910133898258209</v>
+        <v>0.2910110950469971</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-0.5169820189476013</v>
+        <v>-0.5169842839241028</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>50.182</v>
       </c>
       <c r="F90">
-        <v>40.09206390380859</v>
+        <v>40.09206008911133</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.5340461730957031</v>
+        <v>0.5340507030487061</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.776417851448059</v>
+        <v>1.776420116424561</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.776417851448059</v>
+        <v>1.776420116424561</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>41.217</v>
       </c>
       <c r="F99">
-        <v>49.73968505859375</v>
+        <v>49.73968124389648</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>27.37660789489746</v>
+        <v>27.37660598754883</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>58.1678</v>
       </c>
       <c r="F103">
-        <v>54.07049560546875</v>
+        <v>54.07049942016602</v>
       </c>
     </row>
     <row r="104" spans="1:6">
